--- a/biology/Botanique/Themeda_triandra/Themeda_triandra.xlsx
+++ b/biology/Botanique/Themeda_triandra/Themeda_triandra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Themeda triandra est une espèce de plantes monocotylédones de la famille des Poaceae (graminées) largement répandue en Australie, en Afrique, en Asie et autour de l'Océan Pacifique.  elle est connue en Australie sous le nom de kangaroo grass, en Afrique du Sud de red grass (anglais) ou  de rooigras (afrikaans). 
 C'est une plante herbacée vivace, cespiteuse, aux tiges dressées pouvant atteindre 2 m de haut.
@@ -515,7 +527,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -546,7 +560,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Anthistiria australis R.Br.
 Themeda australis (R.Br.) Stapf
@@ -580,9 +596,11 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (20 juillet 2016)[1] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (20 juillet 2016) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Themeda triandra subsp. japonica (Willd.) T. Koyama
 variété Themeda triandra var. bracteosa Peter
 variété Themeda triandra var. burchellii (Hack.) Stapf
